--- a/05_Gestantes/03_profissionais/calendario-procedimentos.xlsx
+++ b/05_Gestantes/03_profissionais/calendario-procedimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapei_Cigets\Documents\GitHub\dimensionamento\05_Gestantes\03_profissionais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D450E21-4288-4A39-8C70-AD7E48C564F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A5E05A-8222-4F07-8577-E009C305B45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">procedimentos!$A$1:$G$109</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">procedimentos_profissionais!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">procedimentos_profissionais!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">procedimentos_tempo!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,8 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -172,15 +170,42 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={4D0420E0-4BC2-48FC-85B9-1EF34BBEAA4E}</author>
-    <author>tc={B42BC88F-C045-463E-9FF6-19CDDFA4EE36}</author>
-    <author>tc={B1507146-F1D8-4A92-80F8-91EF92F845AB}</author>
     <author>tc={3869F3AB-B2DB-4C23-A33A-3CA00BDA7A17}</author>
     <author>tc={572264D7-BAFC-412D-881C-B3517E6329E3}</author>
     <author>tc={2D2E42AA-1DFD-4D27-A6E0-59AFDE7F1A09}</author>
+    <author>tc={4D0420E0-4BC2-48FC-85B9-1EF34BBEAA4E}</author>
+    <author>tc={72383895-D0A1-4EAE-B1C9-63D3C648CE7C}</author>
+    <author>tc={B42BC88F-C045-463E-9FF6-19CDDFA4EE36}</author>
+    <author>tc={B1507146-F1D8-4A92-80F8-91EF92F845AB}</author>
   </authors>
   <commentList>
-    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{4D0420E0-4BC2-48FC-85B9-1EF34BBEAA4E}">
+    <comment ref="A53" authorId="0" shapeId="0" xr:uid="{3869F3AB-B2DB-4C23-A33A-3CA00BDA7A17}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Tem um zero a mais ao final para diferenciar o código para a consulta com psicólogo
+</t>
+      </text>
+    </comment>
+    <comment ref="A59" authorId="1" shapeId="0" xr:uid="{572264D7-BAFC-412D-881C-B3517E6329E3}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Esses códigos menores não encontramos 
+</t>
+      </text>
+    </comment>
+    <comment ref="A61" authorId="2" shapeId="0" xr:uid="{2D2E42AA-1DFD-4D27-A6E0-59AFDE7F1A09}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Coloquei esse valor de tempo, pois temos que considerar a quantidade de tempo por encontro. No quarto encontro já temos 0,20 de tempo das demais vacinas. Portanto, adicionamos 0,30 aqui para completar 0,50 de cada encontro </t>
+      </text>
+    </comment>
+    <comment ref="A66" authorId="3" shapeId="0" xr:uid="{4D0420E0-4BC2-48FC-85B9-1EF34BBEAA4E}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -189,7 +214,16 @@
 </t>
       </text>
     </comment>
-    <comment ref="A29" authorId="1" shapeId="0" xr:uid="{B42BC88F-C045-463E-9FF6-19CDDFA4EE36}">
+    <comment ref="C66" authorId="4" shapeId="0" xr:uid="{72383895-D0A1-4EAE-B1C9-63D3C648CE7C}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Enfermeiro faz a coleta na APS, mas são enviados para avaliação do profissional biomédico
+</t>
+      </text>
+    </comment>
+    <comment ref="A67" authorId="5" shapeId="0" xr:uid="{B42BC88F-C045-463E-9FF6-19CDDFA4EE36}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -198,7 +232,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="A31" authorId="2" shapeId="0" xr:uid="{B1507146-F1D8-4A92-80F8-91EF92F845AB}">
+    <comment ref="A68" authorId="6" shapeId="0" xr:uid="{B1507146-F1D8-4A92-80F8-91EF92F845AB}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -207,38 +241,12 @@
 </t>
       </text>
     </comment>
-    <comment ref="A34" authorId="3" shapeId="0" xr:uid="{3869F3AB-B2DB-4C23-A33A-3CA00BDA7A17}">
-      <text>
-        <t xml:space="preserve">[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Tem um zero a mais ao final para diferenciar o código para a consulta com psicólogo
-</t>
-      </text>
-    </comment>
-    <comment ref="A60" authorId="4" shapeId="0" xr:uid="{572264D7-BAFC-412D-881C-B3517E6329E3}">
-      <text>
-        <t xml:space="preserve">[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Esses códigos menores não encontramos 
-</t>
-      </text>
-    </comment>
-    <comment ref="A62" authorId="5" shapeId="0" xr:uid="{2D2E42AA-1DFD-4D27-A6E0-59AFDE7F1A09}">
-      <text>
-        <t xml:space="preserve">[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Coloquei esse valor de tempo, pois temos que considerar a quantidade de tempo por encontro. No quarto encontro já temos 0,20 de tempo das demais vacinas. Portanto, adicionamos 0,30 aqui para completar 0,50 de cada encontro </t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="145">
   <si>
     <t>mes</t>
   </si>
@@ -660,10 +668,19 @@
     <t>Dentista</t>
   </si>
   <si>
-    <t>Médico ou Enfermeiro</t>
-  </si>
-  <si>
     <t>Médico - Cardiologista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Médico </t>
+  </si>
+  <si>
+    <t>Médico Pediatra</t>
+  </si>
+  <si>
+    <t>Médico Oftalmologista</t>
+  </si>
+  <si>
+    <t>Fonoaudiólogo</t>
   </si>
 </sst>
 </file>
@@ -1124,11 +1141,26 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A22" dT="2023-04-24T15:37:04.73" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{4D0420E0-4BC2-48FC-85B9-1EF34BBEAA4E}">
+  <threadedComment ref="A53" dT="2023-04-03T12:35:57.86" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{3869F3AB-B2DB-4C23-A33A-3CA00BDA7A17}">
+    <text xml:space="preserve">Tem um zero a mais ao final para diferenciar o código para a consulta com psicólogo
+</text>
+  </threadedComment>
+  <threadedComment ref="A59" dT="2023-04-24T15:40:34.84" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{572264D7-BAFC-412D-881C-B3517E6329E3}">
+    <text xml:space="preserve">Esses códigos menores não encontramos 
+</text>
+  </threadedComment>
+  <threadedComment ref="A61" dT="2023-05-09T14:20:43.48" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{2D2E42AA-1DFD-4D27-A6E0-59AFDE7F1A09}">
+    <text xml:space="preserve">Coloquei esse valor de tempo, pois temos que considerar a quantidade de tempo por encontro. No quarto encontro já temos 0,20 de tempo das demais vacinas. Portanto, adicionamos 0,30 aqui para completar 0,50 de cada encontro </text>
+  </threadedComment>
+  <threadedComment ref="A66" dT="2023-04-24T15:37:04.73" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{4D0420E0-4BC2-48FC-85B9-1EF34BBEAA4E}">
     <text xml:space="preserve">Não existe um único código, mas vários códigos para cada componente
 </text>
   </threadedComment>
-  <threadedComment ref="A29" dT="2023-04-24T15:46:16.02" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{B42BC88F-C045-463E-9FF6-19CDDFA4EE36}">
+  <threadedComment ref="C66" dT="2023-05-09T17:33:46.95" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{72383895-D0A1-4EAE-B1C9-63D3C648CE7C}">
+    <text xml:space="preserve">Enfermeiro faz a coleta na APS, mas são enviados para avaliação do profissional biomédico
+</text>
+  </threadedComment>
+  <threadedComment ref="A67" dT="2023-04-24T15:46:16.02" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{B42BC88F-C045-463E-9FF6-19CDDFA4EE36}">
     <text xml:space="preserve">Conforme essa portaria - https://bvsms.saude.gov.br/bvs/saudelegis/gm/2021/prt3516_23_12_2021.html
 </text>
     <extLst>
@@ -1138,20 +1170,9 @@
       </x:ext>
     </extLst>
   </threadedComment>
-  <threadedComment ref="A31" dT="2023-04-24T15:43:03.58" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{B1507146-F1D8-4A92-80F8-91EF92F845AB}">
+  <threadedComment ref="A68" dT="2023-04-24T15:43:03.58" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{B1507146-F1D8-4A92-80F8-91EF92F845AB}">
     <text xml:space="preserve">Usei o código de triagem oftalmológica
 </text>
-  </threadedComment>
-  <threadedComment ref="A34" dT="2023-04-03T12:35:57.86" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{3869F3AB-B2DB-4C23-A33A-3CA00BDA7A17}">
-    <text xml:space="preserve">Tem um zero a mais ao final para diferenciar o código para a consulta com psicólogo
-</text>
-  </threadedComment>
-  <threadedComment ref="A60" dT="2023-04-24T15:40:34.84" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{572264D7-BAFC-412D-881C-B3517E6329E3}">
-    <text xml:space="preserve">Esses códigos menores não encontramos 
-</text>
-  </threadedComment>
-  <threadedComment ref="A62" dT="2023-05-09T14:20:43.48" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{2D2E42AA-1DFD-4D27-A6E0-59AFDE7F1A09}">
-    <text xml:space="preserve">Coloquei esse valor de tempo, pois temos que considerar a quantidade de tempo por encontro. No quarto encontro já temos 0,20 de tempo das demais vacinas. Portanto, adicionamos 0,30 aqui para completar 0,50 de cada encontro </text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -4604,17 +4625,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E4A308-1EFC-4EB7-B73F-B08C0D7331D9}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="72.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -4642,697 +4664,847 @@
         <v>128</v>
       </c>
       <c r="D2">
-        <v>322205</v>
+        <v>515105</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3">
-        <v>223710</v>
+        <v>515105</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D4">
-        <v>225250</v>
+        <v>251605</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D5">
-        <v>225130</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
         <v>133</v>
       </c>
       <c r="D6">
-        <v>223505</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>133</v>
       </c>
       <c r="D7">
-        <v>223505</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
         <v>133</v>
       </c>
       <c r="D8">
-        <v>223505</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
         <v>133</v>
       </c>
       <c r="D9">
-        <v>223505</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>133</v>
       </c>
       <c r="D10">
-        <v>223505</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
         <v>133</v>
       </c>
       <c r="D11">
-        <v>223505</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>133</v>
       </c>
       <c r="D12">
-        <v>223505</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>133</v>
       </c>
       <c r="D13">
-        <v>223505</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>133</v>
       </c>
       <c r="D14">
-        <v>223505</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>133</v>
       </c>
       <c r="D15">
-        <v>223505</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>133</v>
       </c>
       <c r="D16">
-        <v>223505</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>133</v>
+      </c>
+      <c r="D17">
+        <v>221205</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>133</v>
       </c>
+      <c r="D18">
+        <v>221205</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>133</v>
+      </c>
+      <c r="D19">
+        <v>221205</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>133</v>
       </c>
+      <c r="D20">
+        <v>221205</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
         <v>133</v>
       </c>
+      <c r="D21">
+        <v>221205</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="10"/>
+      <c r="A22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22">
+        <v>221205</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>139</v>
+      </c>
+      <c r="D23">
+        <v>223208</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="D24">
+        <v>223505</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="D25">
+        <v>223505</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26">
+        <v>223505</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27">
+        <v>223505</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>129</v>
+      </c>
+      <c r="D28">
+        <v>223505</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29">
+        <v>223505</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30">
+        <v>223605</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="C34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>138</v>
+      </c>
+      <c r="D34">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>72</v>
+        <v>130</v>
+      </c>
+      <c r="D35">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>130</v>
+      </c>
+      <c r="D36">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>130</v>
+      </c>
+      <c r="D37">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>130</v>
+      </c>
+      <c r="D38">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>51</v>
+        <v>130</v>
+      </c>
+      <c r="D39">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="D40">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>113</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>113</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>113</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>113</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>97</v>
+      <c r="D44">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>113</v>
+      <c r="D45">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>98</v>
+      <c r="D46">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
-        <v>113</v>
+        <v>138</v>
+      </c>
+      <c r="D47">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>141</v>
+      </c>
+      <c r="D48">
+        <v>225130</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
-        <v>113</v>
+      <c r="A49" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>141</v>
+      </c>
+      <c r="D49">
+        <v>225130</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
-        <v>113</v>
+      <c r="A50" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>140</v>
+      </c>
+      <c r="D50">
+        <v>225120</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>6</v>
+        <v>51</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="D51">
+        <v>225250</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
-      </c>
-      <c r="D52" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="D52">
+        <v>223710</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>134</v>
+      </c>
+      <c r="D53">
+        <v>251510</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="D54">
+        <v>322205</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>7</v>
+        <v>75</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
-      </c>
-      <c r="D55" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="D55">
+        <v>322205</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>5</v>
+        <v>122</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
-      </c>
-      <c r="D56" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="D56">
+        <v>322205</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
         <v>131</v>
       </c>
+      <c r="D57">
+        <v>322205</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
         <v>131</v>
       </c>
+      <c r="D58">
+        <v>322205</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
         <v>131</v>
       </c>
+      <c r="D59">
+        <v>322205</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s">
         <v>131</v>
       </c>
+      <c r="D60">
+        <v>322205</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s">
         <v>131</v>
       </c>
+      <c r="D61">
+        <v>322205</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
         <v>131</v>
+      </c>
+      <c r="D62">
+        <v>322205</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -5340,59 +5512,98 @@
         <v>119</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
         <v>131</v>
       </c>
+      <c r="D63">
+        <v>322205</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
         <v>131</v>
       </c>
+      <c r="D64">
+        <v>322205</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
         <v>131</v>
       </c>
+      <c r="D65">
+        <v>322205</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>86</v>
+      <c r="A66" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="D66">
+        <v>223505</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="D67"/>
+      <c r="A67" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67">
+        <v>225124</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="D68"/>
+      <c r="A68" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68">
+        <v>225265</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="D69"/>
+      <c r="A69" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69">
+        <v>223810</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70"/>
@@ -5482,10 +5693,13 @@
     <row r="111" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="112" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{61E4A308-1EFC-4EB7-B73F-B08C0D7331D9}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C62">
-      <sortCondition ref="A1"/>
+  <autoFilter ref="A1:D1" xr:uid="{61E4A308-1EFC-4EB7-B73F-B08C0D7331D9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D69">
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/05_Gestantes/03_profissionais/calendario-procedimentos.xlsx
+++ b/05_Gestantes/03_profissionais/calendario-procedimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapei_Cigets\Documents\GitHub\dimensionamento\05_Gestantes\03_profissionais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A5E05A-8222-4F07-8577-E009C305B45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5159F633-C409-4DCE-BCB1-AAA2EAF136A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,16 +170,25 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={572264D7-BAFC-412D-881C-B3517E6329E3}</author>
     <author>tc={3869F3AB-B2DB-4C23-A33A-3CA00BDA7A17}</author>
-    <author>tc={572264D7-BAFC-412D-881C-B3517E6329E3}</author>
     <author>tc={2D2E42AA-1DFD-4D27-A6E0-59AFDE7F1A09}</author>
+    <author>tc={B1507146-F1D8-4A92-80F8-91EF92F845AB}</author>
     <author>tc={4D0420E0-4BC2-48FC-85B9-1EF34BBEAA4E}</author>
     <author>tc={72383895-D0A1-4EAE-B1C9-63D3C648CE7C}</author>
     <author>tc={B42BC88F-C045-463E-9FF6-19CDDFA4EE36}</author>
-    <author>tc={B1507146-F1D8-4A92-80F8-91EF92F845AB}</author>
   </authors>
   <commentList>
-    <comment ref="A53" authorId="0" shapeId="0" xr:uid="{3869F3AB-B2DB-4C23-A33A-3CA00BDA7A17}">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{572264D7-BAFC-412D-881C-B3517E6329E3}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Esses códigos menores não encontramos 
+</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="1" shapeId="0" xr:uid="{3869F3AB-B2DB-4C23-A33A-3CA00BDA7A17}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -188,16 +197,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="A59" authorId="1" shapeId="0" xr:uid="{572264D7-BAFC-412D-881C-B3517E6329E3}">
-      <text>
-        <t xml:space="preserve">[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Esses códigos menores não encontramos 
-</t>
-      </text>
-    </comment>
-    <comment ref="A61" authorId="2" shapeId="0" xr:uid="{2D2E42AA-1DFD-4D27-A6E0-59AFDE7F1A09}">
+    <comment ref="A51" authorId="2" shapeId="0" xr:uid="{2D2E42AA-1DFD-4D27-A6E0-59AFDE7F1A09}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -205,7 +205,16 @@
     Coloquei esse valor de tempo, pois temos que considerar a quantidade de tempo por encontro. No quarto encontro já temos 0,20 de tempo das demais vacinas. Portanto, adicionamos 0,30 aqui para completar 0,50 de cada encontro </t>
       </text>
     </comment>
-    <comment ref="A66" authorId="3" shapeId="0" xr:uid="{4D0420E0-4BC2-48FC-85B9-1EF34BBEAA4E}">
+    <comment ref="A61" authorId="3" shapeId="0" xr:uid="{B1507146-F1D8-4A92-80F8-91EF92F845AB}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Usei o código de triagem oftalmológica
+</t>
+      </text>
+    </comment>
+    <comment ref="A70" authorId="4" shapeId="0" xr:uid="{4D0420E0-4BC2-48FC-85B9-1EF34BBEAA4E}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -214,7 +223,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="C66" authorId="4" shapeId="0" xr:uid="{72383895-D0A1-4EAE-B1C9-63D3C648CE7C}">
+    <comment ref="C70" authorId="5" shapeId="0" xr:uid="{72383895-D0A1-4EAE-B1C9-63D3C648CE7C}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -223,7 +232,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="A67" authorId="5" shapeId="0" xr:uid="{B42BC88F-C045-463E-9FF6-19CDDFA4EE36}">
+    <comment ref="A71" authorId="6" shapeId="0" xr:uid="{B42BC88F-C045-463E-9FF6-19CDDFA4EE36}">
       <text>
         <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -232,21 +241,12 @@
 </t>
       </text>
     </comment>
-    <comment ref="A68" authorId="6" shapeId="0" xr:uid="{B1507146-F1D8-4A92-80F8-91EF92F845AB}">
-      <text>
-        <t xml:space="preserve">[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Usei o código de triagem oftalmológica
-</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="145">
   <si>
     <t>mes</t>
   </si>
@@ -1141,26 +1141,30 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A53" dT="2023-04-03T12:35:57.86" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{3869F3AB-B2DB-4C23-A33A-3CA00BDA7A17}">
+  <threadedComment ref="A7" dT="2023-04-24T15:40:34.84" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{572264D7-BAFC-412D-881C-B3517E6329E3}">
+    <text xml:space="preserve">Esses códigos menores não encontramos 
+</text>
+  </threadedComment>
+  <threadedComment ref="A33" dT="2023-04-03T12:35:57.86" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{3869F3AB-B2DB-4C23-A33A-3CA00BDA7A17}">
     <text xml:space="preserve">Tem um zero a mais ao final para diferenciar o código para a consulta com psicólogo
 </text>
   </threadedComment>
-  <threadedComment ref="A59" dT="2023-04-24T15:40:34.84" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{572264D7-BAFC-412D-881C-B3517E6329E3}">
-    <text xml:space="preserve">Esses códigos menores não encontramos 
+  <threadedComment ref="A51" dT="2023-05-09T14:20:43.48" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{2D2E42AA-1DFD-4D27-A6E0-59AFDE7F1A09}">
+    <text xml:space="preserve">Coloquei esse valor de tempo, pois temos que considerar a quantidade de tempo por encontro. No quarto encontro já temos 0,20 de tempo das demais vacinas. Portanto, adicionamos 0,30 aqui para completar 0,50 de cada encontro </text>
+  </threadedComment>
+  <threadedComment ref="A61" dT="2023-04-24T15:43:03.58" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{B1507146-F1D8-4A92-80F8-91EF92F845AB}">
+    <text xml:space="preserve">Usei o código de triagem oftalmológica
 </text>
   </threadedComment>
-  <threadedComment ref="A61" dT="2023-05-09T14:20:43.48" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{2D2E42AA-1DFD-4D27-A6E0-59AFDE7F1A09}">
-    <text xml:space="preserve">Coloquei esse valor de tempo, pois temos que considerar a quantidade de tempo por encontro. No quarto encontro já temos 0,20 de tempo das demais vacinas. Portanto, adicionamos 0,30 aqui para completar 0,50 de cada encontro </text>
-  </threadedComment>
-  <threadedComment ref="A66" dT="2023-04-24T15:37:04.73" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{4D0420E0-4BC2-48FC-85B9-1EF34BBEAA4E}">
+  <threadedComment ref="A70" dT="2023-04-24T15:37:04.73" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{4D0420E0-4BC2-48FC-85B9-1EF34BBEAA4E}">
     <text xml:space="preserve">Não existe um único código, mas vários códigos para cada componente
 </text>
   </threadedComment>
-  <threadedComment ref="C66" dT="2023-05-09T17:33:46.95" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{72383895-D0A1-4EAE-B1C9-63D3C648CE7C}">
+  <threadedComment ref="C70" dT="2023-05-09T17:33:46.95" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{72383895-D0A1-4EAE-B1C9-63D3C648CE7C}">
     <text xml:space="preserve">Enfermeiro faz a coleta na APS, mas são enviados para avaliação do profissional biomédico
 </text>
   </threadedComment>
-  <threadedComment ref="A67" dT="2023-04-24T15:46:16.02" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{B42BC88F-C045-463E-9FF6-19CDDFA4EE36}">
+  <threadedComment ref="A71" dT="2023-04-24T15:46:16.02" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{B42BC88F-C045-463E-9FF6-19CDDFA4EE36}">
     <text xml:space="preserve">Conforme essa portaria - https://bvsms.saude.gov.br/bvs/saudelegis/gm/2021/prt3516_23_12_2021.html
 </text>
     <extLst>
@@ -1169,10 +1173,6 @@
         <xltc2:hyperlink startIndex="25" length="73" url="https://bvsms.saude.gov.br/bvs/saudelegis/gm/2021/prt3516_23_12_2021.html"/>
       </x:ext>
     </extLst>
-  </threadedComment>
-  <threadedComment ref="A68" dT="2023-04-24T15:43:03.58" personId="{9E3CEF9D-B578-4594-A579-739463156305}" id="{B1507146-F1D8-4A92-80F8-91EF92F845AB}">
-    <text xml:space="preserve">Usei o código de triagem oftalmológica
-</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -4625,10 +4625,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E4A308-1EFC-4EB7-B73F-B08C0D7331D9}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4669,80 +4669,80 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D3">
-        <v>515105</v>
+        <v>223505</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D4">
-        <v>251605</v>
+        <v>225130</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5">
-        <v>221205</v>
+        <v>322205</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D6">
-        <v>221205</v>
+        <v>223208</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D7">
-        <v>221205</v>
+        <v>322205</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>133</v>
@@ -4752,221 +4752,221 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>63</v>
+      <c r="A9" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D9">
-        <v>221205</v>
+        <v>225130</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>52</v>
+      <c r="A10" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D10">
-        <v>221205</v>
+        <v>223505</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>60</v>
+      <c r="A11" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D11">
-        <v>221205</v>
+        <v>225130</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
+      <c r="A12" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D12">
-        <v>221205</v>
+        <v>223505</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>35</v>
+      <c r="A13" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D13">
-        <v>221205</v>
+        <v>225130</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
+      <c r="A14" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D14">
-        <v>221205</v>
+        <v>223505</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
+      <c r="A15" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D15">
-        <v>221205</v>
+        <v>225130</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>36</v>
+      <c r="A16" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D16">
-        <v>221205</v>
+        <v>223505</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>42</v>
+      <c r="A17" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D17">
-        <v>221205</v>
+        <v>225130</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>43</v>
+      <c r="A18" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D18">
-        <v>221205</v>
+        <v>223505</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>39</v>
+      <c r="A19" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D19">
-        <v>221205</v>
+        <v>225130</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
+      <c r="A20" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D20">
-        <v>221205</v>
+        <v>223505</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>41</v>
+      <c r="A21" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D21">
-        <v>221205</v>
+        <v>225130</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>44</v>
+      <c r="A22" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D22">
-        <v>221205</v>
+        <v>223505</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>7</v>
+      <c r="A23" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D23">
-        <v>223208</v>
+        <v>225130</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>26</v>
+      <c r="A24" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
         <v>129</v>
@@ -4976,25 +4976,25 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>38</v>
+      <c r="A25" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D25">
-        <v>223505</v>
+        <v>225130</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>37</v>
+      <c r="A26" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
         <v>129</v>
@@ -5004,25 +5004,25 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>71</v>
+      <c r="A27" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D27">
-        <v>223505</v>
+        <v>225130</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>6</v>
+      <c r="A28" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C28" t="s">
         <v>129</v>
@@ -5033,122 +5033,122 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D29">
-        <v>223505</v>
+        <v>251605</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D30">
-        <v>223605</v>
+        <v>223505</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D31">
-        <v>225130</v>
+        <v>223605</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D32">
-        <v>225130</v>
+        <v>223710</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D33">
-        <v>225130</v>
+        <v>251510</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34">
+        <v>322205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
         <v>138</v>
       </c>
-      <c r="D34">
-        <v>225130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" t="s">
-        <v>130</v>
-      </c>
       <c r="D35">
-        <v>225130</v>
+        <v>225250</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>102</v>
+      <c r="A36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D36">
-        <v>225130</v>
+        <v>223505</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>101</v>
+      <c r="A37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>130</v>
@@ -5158,25 +5158,25 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>113</v>
+      <c r="A38" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38">
-        <v>225130</v>
+        <v>223505</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>113</v>
+      <c r="A39" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>130</v>
@@ -5186,221 +5186,221 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>113</v>
+      <c r="A40" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D40">
-        <v>225130</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>113</v>
+      <c r="A41" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D41">
-        <v>225130</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>113</v>
+      <c r="A42" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D42">
-        <v>225130</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>113</v>
+      <c r="A43" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D43">
-        <v>225130</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>113</v>
+      <c r="A44" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D44">
-        <v>225130</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>6</v>
+        <v>63</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D45">
-        <v>225130</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D46">
-        <v>225130</v>
+        <v>225120</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D47">
-        <v>225130</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D48">
-        <v>225130</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D49">
-        <v>225130</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D50">
-        <v>225120</v>
+        <v>322205</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D51">
-        <v>225250</v>
+        <v>322205</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D52">
-        <v>223710</v>
+        <v>322205</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D53">
-        <v>251510</v>
+        <v>322205</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D54">
-        <v>322205</v>
+        <v>225130</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
         <v>131</v>
@@ -5411,10 +5411,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
         <v>131</v>
@@ -5425,10 +5425,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
         <v>131</v>
@@ -5439,221 +5439,311 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D58">
-        <v>322205</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D59">
-        <v>322205</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D60">
-        <v>322205</v>
+        <v>221205</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>91</v>
+      <c r="A61" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D61">
-        <v>322205</v>
+        <v>225265</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D62">
-        <v>322205</v>
+        <v>223505</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D63">
-        <v>322205</v>
+        <v>225130</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D64">
-        <v>322205</v>
+        <v>223505</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66">
+        <v>221205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67">
+        <v>223810</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69">
+        <v>221205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70">
+        <v>223505</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71">
+        <v>225124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72">
+        <v>221205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D73">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74">
+        <v>225130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75">
+        <v>221205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76">
+        <v>221205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77">
+        <v>515105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" t="s">
         <v>131</v>
       </c>
-      <c r="D65">
+      <c r="D78">
         <v>322205</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C66" t="s">
-        <v>129</v>
-      </c>
-      <c r="D66">
-        <v>223505</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" t="s">
-        <v>142</v>
-      </c>
-      <c r="D67">
-        <v>225124</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" t="s">
-        <v>143</v>
-      </c>
-      <c r="D68">
-        <v>225265</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C69" t="s">
-        <v>144</v>
-      </c>
-      <c r="D69">
-        <v>223810</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="D70"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="D71"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="D72"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="D73"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="D74"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="D75"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="D76"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="D77"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="D78"/>
-    </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="D79"/>
+      <c r="A79" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" t="s">
+        <v>131</v>
+      </c>
+      <c r="D79">
+        <v>322205</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80"/>
@@ -5696,12 +5786,23 @@
     <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{61E4A308-1EFC-4EB7-B73F-B08C0D7331D9}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D69">
-      <sortCondition ref="C1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
